--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\PycharmProjects\FaceMesh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\PycharmProjects\CODIGOS_TESIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A6E133-9A01-4016-9995-BCC7A6136F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD4AFEB-9527-4722-92A8-568C18B2B551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="8" xr2:uid="{4304E637-BFEB-48E3-886B-90B278CDA9D1}"/>
+    <workbookView xWindow="5340" yWindow="5340" windowWidth="19200" windowHeight="9050" activeTab="8" xr2:uid="{4304E637-BFEB-48E3-886B-90B278CDA9D1}"/>
   </bookViews>
   <sheets>
     <sheet name="divisions" sheetId="1" r:id="rId1"/>
@@ -55490,7 +55490,7 @@
   <dimension ref="A2:A745"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A718" workbookViewId="0">
-      <selection activeCell="H749" sqref="H749"/>
+      <selection activeCell="F725" sqref="F725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\PycharmProjects\CODIGOS_TESIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD4AFEB-9527-4722-92A8-568C18B2B551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7F9C60-3D8D-47E3-A2CB-13F423AE1BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="5340" windowWidth="19200" windowHeight="9050" activeTab="8" xr2:uid="{4304E637-BFEB-48E3-886B-90B278CDA9D1}"/>
   </bookViews>
@@ -55490,7 +55490,7 @@
   <dimension ref="A2:A745"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A718" workbookViewId="0">
-      <selection activeCell="F725" sqref="F725"/>
+      <selection activeCell="J725" sqref="J725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\PycharmProjects\CODIGOS_TESIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0662985-94ED-4F2A-AA15-B1DB1BCF2382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F833D971-FFF5-4D49-87B4-D8334DE347EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23581,7 +23581,7 @@
   <dimension ref="A1:G2083"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2075" workbookViewId="0">
-      <selection activeCell="O2099" sqref="O2099"/>
+      <selection activeCell="Q2099" sqref="Q2099"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -71538,10 +71538,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G748"/>
+  <dimension ref="A1:G745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A733" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A736" workbookViewId="0">
+      <selection activeCell="I747" sqref="I747"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -88695,21 +88695,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="746">
-      <c r="G746" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="G747" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="G748" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -23596,7 +23596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2083"/>
+  <dimension ref="A1:G2121"/>
   <sheetViews>
     <sheetView topLeftCell="A2075" workbookViewId="0">
       <selection activeCell="Q2099" sqref="Q2099"/>
@@ -71526,6 +71526,120 @@
       <c r="G2083" t="n">
         <v>2</v>
       </c>
+    </row>
+    <row r="2084">
+      <c r="G2084" t="inlineStr"/>
+    </row>
+    <row r="2085">
+      <c r="G2085" t="inlineStr"/>
+    </row>
+    <row r="2086">
+      <c r="G2086" t="inlineStr"/>
+    </row>
+    <row r="2087">
+      <c r="G2087" t="inlineStr"/>
+    </row>
+    <row r="2088">
+      <c r="G2088" t="inlineStr"/>
+    </row>
+    <row r="2089">
+      <c r="G2089" t="inlineStr"/>
+    </row>
+    <row r="2090">
+      <c r="G2090" t="inlineStr"/>
+    </row>
+    <row r="2091">
+      <c r="G2091" t="inlineStr"/>
+    </row>
+    <row r="2092">
+      <c r="G2092" t="inlineStr"/>
+    </row>
+    <row r="2093">
+      <c r="G2093" t="inlineStr"/>
+    </row>
+    <row r="2094">
+      <c r="G2094" t="inlineStr"/>
+    </row>
+    <row r="2095">
+      <c r="G2095" t="inlineStr"/>
+    </row>
+    <row r="2096">
+      <c r="G2096" t="inlineStr"/>
+    </row>
+    <row r="2097">
+      <c r="G2097" t="inlineStr"/>
+    </row>
+    <row r="2098">
+      <c r="G2098" t="inlineStr"/>
+    </row>
+    <row r="2099">
+      <c r="G2099" t="inlineStr"/>
+    </row>
+    <row r="2100">
+      <c r="G2100" t="inlineStr"/>
+    </row>
+    <row r="2101">
+      <c r="G2101" t="inlineStr"/>
+    </row>
+    <row r="2102">
+      <c r="G2102" t="inlineStr"/>
+    </row>
+    <row r="2103">
+      <c r="G2103" t="inlineStr"/>
+    </row>
+    <row r="2104">
+      <c r="G2104" t="inlineStr"/>
+    </row>
+    <row r="2105">
+      <c r="G2105" t="inlineStr"/>
+    </row>
+    <row r="2106">
+      <c r="G2106" t="inlineStr"/>
+    </row>
+    <row r="2107">
+      <c r="G2107" t="inlineStr"/>
+    </row>
+    <row r="2108">
+      <c r="G2108" t="inlineStr"/>
+    </row>
+    <row r="2109">
+      <c r="G2109" t="inlineStr"/>
+    </row>
+    <row r="2110">
+      <c r="G2110" t="inlineStr"/>
+    </row>
+    <row r="2111">
+      <c r="G2111" t="inlineStr"/>
+    </row>
+    <row r="2112">
+      <c r="G2112" t="inlineStr"/>
+    </row>
+    <row r="2113">
+      <c r="G2113" t="inlineStr"/>
+    </row>
+    <row r="2114">
+      <c r="G2114" t="inlineStr"/>
+    </row>
+    <row r="2115">
+      <c r="G2115" t="inlineStr"/>
+    </row>
+    <row r="2116">
+      <c r="G2116" t="inlineStr"/>
+    </row>
+    <row r="2117">
+      <c r="G2117" t="inlineStr"/>
+    </row>
+    <row r="2118">
+      <c r="G2118" t="inlineStr"/>
+    </row>
+    <row r="2119">
+      <c r="G2119" t="inlineStr"/>
+    </row>
+    <row r="2120">
+      <c r="G2120" t="inlineStr"/>
+    </row>
+    <row r="2121">
+      <c r="G2121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -23596,7 +23596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2121"/>
+  <dimension ref="A1:G2149"/>
   <sheetViews>
     <sheetView topLeftCell="A2075" workbookViewId="0">
       <selection activeCell="Q2099" sqref="Q2099"/>
@@ -71528,118 +71528,334 @@
       </c>
     </row>
     <row r="2084">
-      <c r="G2084" t="inlineStr"/>
+      <c r="G2084" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2085">
-      <c r="G2085" t="inlineStr"/>
+      <c r="G2085" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2086">
-      <c r="G2086" t="inlineStr"/>
+      <c r="G2086" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2087">
-      <c r="G2087" t="inlineStr"/>
+      <c r="G2087" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2088">
-      <c r="G2088" t="inlineStr"/>
+      <c r="G2088" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2089">
-      <c r="G2089" t="inlineStr"/>
+      <c r="G2089" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2090">
-      <c r="G2090" t="inlineStr"/>
+      <c r="G2090" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2091">
-      <c r="G2091" t="inlineStr"/>
+      <c r="G2091" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2092">
-      <c r="G2092" t="inlineStr"/>
+      <c r="G2092" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2093">
-      <c r="G2093" t="inlineStr"/>
+      <c r="G2093" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2094">
-      <c r="G2094" t="inlineStr"/>
+      <c r="G2094" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2095">
-      <c r="G2095" t="inlineStr"/>
+      <c r="G2095" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2096">
-      <c r="G2096" t="inlineStr"/>
+      <c r="G2096" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2097">
-      <c r="G2097" t="inlineStr"/>
+      <c r="G2097" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2098">
-      <c r="G2098" t="inlineStr"/>
+      <c r="G2098" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2099">
-      <c r="G2099" t="inlineStr"/>
+      <c r="G2099" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2100">
-      <c r="G2100" t="inlineStr"/>
+      <c r="G2100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2101">
-      <c r="G2101" t="inlineStr"/>
+      <c r="G2101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2102">
-      <c r="G2102" t="inlineStr"/>
+      <c r="G2102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2103">
-      <c r="G2103" t="inlineStr"/>
+      <c r="G2103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2104">
-      <c r="G2104" t="inlineStr"/>
+      <c r="G2104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2105">
-      <c r="G2105" t="inlineStr"/>
+      <c r="G2105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2106">
-      <c r="G2106" t="inlineStr"/>
+      <c r="G2106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2107">
-      <c r="G2107" t="inlineStr"/>
+      <c r="G2107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2108">
-      <c r="G2108" t="inlineStr"/>
+      <c r="G2108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2109">
-      <c r="G2109" t="inlineStr"/>
+      <c r="G2109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2110">
-      <c r="G2110" t="inlineStr"/>
+      <c r="G2110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2111">
-      <c r="G2111" t="inlineStr"/>
+      <c r="G2111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2112">
-      <c r="G2112" t="inlineStr"/>
+      <c r="G2112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2113">
-      <c r="G2113" t="inlineStr"/>
+      <c r="G2113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2114">
-      <c r="G2114" t="inlineStr"/>
+      <c r="G2114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2115">
-      <c r="G2115" t="inlineStr"/>
+      <c r="G2115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2116">
-      <c r="G2116" t="inlineStr"/>
+      <c r="G2116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2117">
-      <c r="G2117" t="inlineStr"/>
+      <c r="G2117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2118">
-      <c r="G2118" t="inlineStr"/>
+      <c r="G2118" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2119">
-      <c r="G2119" t="inlineStr"/>
+      <c r="G2119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2120">
-      <c r="G2120" t="inlineStr"/>
+      <c r="G2120" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="2121">
-      <c r="G2121" t="inlineStr"/>
+      <c r="G2121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="G2122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="G2123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="G2124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="G2125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="G2126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="G2127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="G2128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="G2129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="G2130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="G2131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="G2132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="G2133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="G2134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="G2135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="G2136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="G2137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="G2138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="G2139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="G2140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="G2141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="G2142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="G2143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="G2144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="G2145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="G2146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="G2147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="G2148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="G2149" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -23596,7 +23596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2149"/>
+  <dimension ref="A1:G2160"/>
   <sheetViews>
     <sheetView topLeftCell="A2075" workbookViewId="0">
       <selection activeCell="Q2099" sqref="Q2099"/>
@@ -71579,17 +71579,17 @@
     </row>
     <row r="2094">
       <c r="G2094" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2095">
       <c r="G2095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2096">
       <c r="G2096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2097">
@@ -71699,42 +71699,42 @@
     </row>
     <row r="2118">
       <c r="G2118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2119">
       <c r="G2119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2120">
       <c r="G2120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2121">
       <c r="G2121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2122">
       <c r="G2122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2123">
       <c r="G2123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2124">
       <c r="G2124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2125">
       <c r="G2125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2126">
@@ -71764,47 +71764,47 @@
     </row>
     <row r="2131">
       <c r="G2131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2132">
       <c r="G2132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2133">
       <c r="G2133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2134">
       <c r="G2134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2135">
       <c r="G2135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2136">
       <c r="G2136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2137">
       <c r="G2137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2138">
       <c r="G2138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2139">
       <c r="G2139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2140">
@@ -71854,6 +71854,61 @@
     </row>
     <row r="2149">
       <c r="G2149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="G2150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="G2151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="G2152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="G2153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="G2154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="G2155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="G2156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="G2157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="G2158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="G2159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="G2160" t="n">
         <v>3</v>
       </c>
     </row>

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -23596,10 +23596,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2834"/>
+  <dimension ref="A1:M2834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -23650,6 +23650,11 @@
           <t>M8</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>M9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -23679,11 +23684,12 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>COUNTIF($I$2084:$I$2761,K2)</f>
+      <c r="J2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF($I$2084:$I$2761,L2)</f>
         <v/>
       </c>
     </row>
@@ -23715,11 +23721,12 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f>COUNTIF($I$2084:$I$2761,K3)</f>
+      <c r="J3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIF($I$2084:$I$2761,L3)</f>
         <v/>
       </c>
     </row>
@@ -23751,11 +23758,12 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <f>COUNTIF($I$2084:$I$2761,K4)</f>
+      <c r="J4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIF($I$2084:$I$2761,L4)</f>
         <v/>
       </c>
     </row>
@@ -23787,11 +23795,12 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <f>COUNTIF($I$2084:$I$2761,K5)</f>
+      <c r="J5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIF($I$2084:$I$2761,L5)</f>
         <v/>
       </c>
     </row>
@@ -23823,6 +23832,7 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -23852,6 +23862,7 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -23881,6 +23892,7 @@
       <c r="I8" t="n">
         <v>1</v>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -23910,6 +23922,7 @@
       <c r="I9" t="n">
         <v>1</v>
       </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -23939,6 +23952,7 @@
       <c r="I10" t="n">
         <v>1</v>
       </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -23968,6 +23982,7 @@
       <c r="I11" t="n">
         <v>2</v>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -23997,6 +24012,7 @@
       <c r="I12" t="n">
         <v>2</v>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -24026,6 +24042,7 @@
       <c r="I13" t="n">
         <v>2</v>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -24055,6 +24072,7 @@
       <c r="I14" t="n">
         <v>2</v>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -24084,6 +24102,7 @@
       <c r="I15" t="n">
         <v>2</v>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -24113,6 +24132,7 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -24142,6 +24162,7 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -24171,6 +24192,7 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -24200,6 +24222,7 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -24229,6 +24252,7 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -24258,6 +24282,7 @@
       <c r="I21" t="n">
         <v>1</v>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -24287,6 +24312,7 @@
       <c r="I22" t="n">
         <v>1</v>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -24316,6 +24342,7 @@
       <c r="I23" t="n">
         <v>1</v>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -24345,6 +24372,7 @@
       <c r="I24" t="n">
         <v>2</v>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -24374,6 +24402,7 @@
       <c r="I25" t="n">
         <v>2</v>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -24403,6 +24432,7 @@
       <c r="I26" t="n">
         <v>2</v>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -24432,6 +24462,7 @@
       <c r="I27" t="n">
         <v>2</v>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -24461,6 +24492,7 @@
       <c r="I28" t="n">
         <v>2</v>
       </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -24490,6 +24522,7 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -24519,6 +24552,7 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -24548,6 +24582,7 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -24577,6 +24612,7 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -24606,6 +24642,7 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -24635,6 +24672,7 @@
       <c r="I34" t="n">
         <v>1</v>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -24664,6 +24702,7 @@
       <c r="I35" t="n">
         <v>1</v>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -24693,6 +24732,7 @@
       <c r="I36" t="n">
         <v>1</v>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -24722,6 +24762,7 @@
       <c r="I37" t="n">
         <v>2</v>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -24751,6 +24792,7 @@
       <c r="I38" t="n">
         <v>2</v>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -24780,6 +24822,7 @@
       <c r="I39" t="n">
         <v>2</v>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -24809,6 +24852,7 @@
       <c r="I40" t="n">
         <v>2</v>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -24838,6 +24882,7 @@
       <c r="I41" t="n">
         <v>2</v>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -24867,6 +24912,7 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -24896,6 +24942,7 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -24925,6 +24972,7 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -24954,6 +25002,7 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -24983,6 +25032,7 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -25012,6 +25062,7 @@
       <c r="I47" t="n">
         <v>1</v>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -25041,6 +25092,7 @@
       <c r="I48" t="n">
         <v>1</v>
       </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -25070,6 +25122,7 @@
       <c r="I49" t="n">
         <v>1</v>
       </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -25099,6 +25152,7 @@
       <c r="I50" t="n">
         <v>2</v>
       </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -25128,6 +25182,7 @@
       <c r="I51" t="n">
         <v>2</v>
       </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -25157,6 +25212,7 @@
       <c r="I52" t="n">
         <v>2</v>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -25186,6 +25242,7 @@
       <c r="I53" t="n">
         <v>2</v>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -25215,6 +25272,7 @@
       <c r="I54" t="n">
         <v>2</v>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -25244,6 +25302,7 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -25273,6 +25332,7 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -25302,6 +25362,7 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -25331,6 +25392,7 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -25360,6 +25422,7 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -25389,6 +25452,7 @@
       <c r="I60" t="n">
         <v>3</v>
       </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -25418,6 +25482,7 @@
       <c r="I61" t="n">
         <v>3</v>
       </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -25447,6 +25512,7 @@
       <c r="I62" t="n">
         <v>3</v>
       </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -25476,6 +25542,7 @@
       <c r="I63" t="n">
         <v>2</v>
       </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -25505,6 +25572,7 @@
       <c r="I64" t="n">
         <v>2</v>
       </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -25534,6 +25602,7 @@
       <c r="I65" t="n">
         <v>2</v>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -25563,6 +25632,7 @@
       <c r="I66" t="n">
         <v>2</v>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -25592,6 +25662,7 @@
       <c r="I67" t="n">
         <v>2</v>
       </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -25621,6 +25692,7 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -25650,6 +25722,7 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -25679,6 +25752,7 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -25708,6 +25782,7 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -25737,6 +25812,7 @@
       <c r="I72" t="n">
         <v>3</v>
       </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -25766,6 +25842,7 @@
       <c r="I73" t="n">
         <v>3</v>
       </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -25795,6 +25872,7 @@
       <c r="I74" t="n">
         <v>3</v>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -25824,6 +25902,7 @@
       <c r="I75" t="n">
         <v>3</v>
       </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -25853,6 +25932,7 @@
       <c r="I76" t="n">
         <v>3</v>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -25882,6 +25962,7 @@
       <c r="I77" t="n">
         <v>2</v>
       </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -25911,6 +25992,7 @@
       <c r="I78" t="n">
         <v>2</v>
       </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -25940,6 +26022,7 @@
       <c r="I79" t="n">
         <v>2</v>
       </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -25969,6 +26052,7 @@
       <c r="I80" t="n">
         <v>2</v>
       </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -25998,6 +26082,7 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -26027,6 +26112,7 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -26056,6 +26142,7 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -26085,6 +26172,7 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -26114,6 +26202,7 @@
       <c r="I85" t="n">
         <v>3</v>
       </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -26143,6 +26232,7 @@
       <c r="I86" t="n">
         <v>3</v>
       </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -26172,6 +26262,7 @@
       <c r="I87" t="n">
         <v>3</v>
       </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -26201,6 +26292,7 @@
       <c r="I88" t="n">
         <v>3</v>
       </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -26230,6 +26322,7 @@
       <c r="I89" t="n">
         <v>3</v>
       </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -26259,6 +26352,7 @@
       <c r="I90" t="n">
         <v>2</v>
       </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -26288,6 +26382,7 @@
       <c r="I91" t="n">
         <v>2</v>
       </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -26317,6 +26412,7 @@
       <c r="I92" t="n">
         <v>2</v>
       </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -26346,6 +26442,7 @@
       <c r="I93" t="n">
         <v>2</v>
       </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -26375,6 +26472,7 @@
       <c r="I94" t="n">
         <v>3</v>
       </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -26404,6 +26502,7 @@
       <c r="I95" t="n">
         <v>1</v>
       </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -26433,6 +26532,7 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -26462,6 +26562,7 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -26491,6 +26592,7 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -26520,6 +26622,7 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -26549,6 +26652,7 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -26578,6 +26682,7 @@
       <c r="I101" t="n">
         <v>1</v>
       </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -26607,6 +26712,7 @@
       <c r="I102" t="n">
         <v>1</v>
       </c>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -26636,6 +26742,7 @@
       <c r="I103" t="n">
         <v>1</v>
       </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -26665,6 +26772,7 @@
       <c r="I104" t="n">
         <v>2</v>
       </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -26694,6 +26802,7 @@
       <c r="I105" t="n">
         <v>2</v>
       </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -26723,6 +26832,7 @@
       <c r="I106" t="n">
         <v>2</v>
       </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -26752,6 +26862,7 @@
       <c r="I107" t="n">
         <v>2</v>
       </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -26781,6 +26892,7 @@
       <c r="I108" t="n">
         <v>2</v>
       </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -26810,6 +26922,7 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -26839,6 +26952,7 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -26868,6 +26982,7 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -26897,6 +27012,7 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -26926,6 +27042,7 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -26955,6 +27072,7 @@
       <c r="I114" t="n">
         <v>1</v>
       </c>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -26984,6 +27102,7 @@
       <c r="I115" t="n">
         <v>1</v>
       </c>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -27013,6 +27132,7 @@
       <c r="I116" t="n">
         <v>1</v>
       </c>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -27042,6 +27162,7 @@
       <c r="I117" t="n">
         <v>2</v>
       </c>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -27071,6 +27192,7 @@
       <c r="I118" t="n">
         <v>2</v>
       </c>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -27100,6 +27222,7 @@
       <c r="I119" t="n">
         <v>2</v>
       </c>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -27129,6 +27252,7 @@
       <c r="I120" t="n">
         <v>2</v>
       </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -27158,6 +27282,7 @@
       <c r="I121" t="n">
         <v>2</v>
       </c>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -27187,6 +27312,7 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -27216,6 +27342,7 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -27245,6 +27372,7 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -27274,6 +27402,7 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -27303,6 +27432,7 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -27332,6 +27462,7 @@
       <c r="I127" t="n">
         <v>1</v>
       </c>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -27361,6 +27492,7 @@
       <c r="I128" t="n">
         <v>1</v>
       </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -27390,6 +27522,7 @@
       <c r="I129" t="n">
         <v>1</v>
       </c>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -27419,6 +27552,7 @@
       <c r="I130" t="n">
         <v>2</v>
       </c>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -27448,6 +27582,7 @@
       <c r="I131" t="n">
         <v>2</v>
       </c>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -27477,6 +27612,7 @@
       <c r="I132" t="n">
         <v>2</v>
       </c>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -27506,6 +27642,7 @@
       <c r="I133" t="n">
         <v>2</v>
       </c>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -27535,6 +27672,7 @@
       <c r="I134" t="n">
         <v>2</v>
       </c>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -27564,6 +27702,7 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -27593,6 +27732,7 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -27622,6 +27762,7 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -27651,6 +27792,7 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -27680,6 +27822,7 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -27709,6 +27852,7 @@
       <c r="I140" t="n">
         <v>1</v>
       </c>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -27738,6 +27882,7 @@
       <c r="I141" t="n">
         <v>1</v>
       </c>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -27767,6 +27912,7 @@
       <c r="I142" t="n">
         <v>1</v>
       </c>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -27796,6 +27942,7 @@
       <c r="I143" t="n">
         <v>2</v>
       </c>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -27825,6 +27972,7 @@
       <c r="I144" t="n">
         <v>2</v>
       </c>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -27854,6 +28002,7 @@
       <c r="I145" t="n">
         <v>2</v>
       </c>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -27883,6 +28032,7 @@
       <c r="I146" t="n">
         <v>2</v>
       </c>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -27912,6 +28062,7 @@
       <c r="I147" t="n">
         <v>2</v>
       </c>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -27941,6 +28092,7 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -27970,6 +28122,7 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -27999,6 +28152,7 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -28028,6 +28182,7 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -28057,6 +28212,7 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -28086,6 +28242,7 @@
       <c r="I153" t="n">
         <v>3</v>
       </c>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -28115,6 +28272,7 @@
       <c r="I154" t="n">
         <v>3</v>
       </c>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -28144,6 +28302,7 @@
       <c r="I155" t="n">
         <v>3</v>
       </c>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -28173,6 +28332,7 @@
       <c r="I156" t="n">
         <v>2</v>
       </c>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -28202,6 +28362,7 @@
       <c r="I157" t="n">
         <v>2</v>
       </c>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -28231,6 +28392,7 @@
       <c r="I158" t="n">
         <v>2</v>
       </c>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -28260,6 +28422,7 @@
       <c r="I159" t="n">
         <v>2</v>
       </c>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -28289,6 +28452,7 @@
       <c r="I160" t="n">
         <v>2</v>
       </c>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -28318,6 +28482,7 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -28347,6 +28512,7 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -28376,6 +28542,7 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -28405,6 +28572,7 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -28434,6 +28602,7 @@
       <c r="I165" t="n">
         <v>3</v>
       </c>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -28463,6 +28632,7 @@
       <c r="I166" t="n">
         <v>3</v>
       </c>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -28492,6 +28662,7 @@
       <c r="I167" t="n">
         <v>3</v>
       </c>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -28521,6 +28692,7 @@
       <c r="I168" t="n">
         <v>3</v>
       </c>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -28550,6 +28722,7 @@
       <c r="I169" t="n">
         <v>3</v>
       </c>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -28579,6 +28752,7 @@
       <c r="I170" t="n">
         <v>2</v>
       </c>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -88057,7 +88231,7 @@
   <dimension ref="A1:M1035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -88108,6 +88282,11 @@
           <t>M8</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>M9</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -23684,7 +23684,9 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -23721,7 +23723,9 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -23758,7 +23762,9 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
@@ -23795,7 +23801,9 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
@@ -23832,7 +23840,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -23862,7 +23872,9 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -23892,7 +23904,9 @@
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -23922,7 +23936,9 @@
       <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -23952,7 +23968,9 @@
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -23982,7 +24000,9 @@
       <c r="I11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -24012,7 +24032,9 @@
       <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -24042,7 +24064,9 @@
       <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -24072,7 +24096,9 @@
       <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -24102,7 +24128,9 @@
       <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -24132,7 +24160,9 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -24162,7 +24192,9 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -24192,7 +24224,9 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -24222,7 +24256,9 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -24252,7 +24288,9 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -24282,7 +24320,9 @@
       <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -24312,7 +24352,9 @@
       <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -24342,7 +24384,9 @@
       <c r="I23" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -24372,7 +24416,9 @@
       <c r="I24" t="n">
         <v>2</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -24402,7 +24448,9 @@
       <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -24432,7 +24480,9 @@
       <c r="I26" t="n">
         <v>2</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -24462,7 +24512,9 @@
       <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -24492,7 +24544,9 @@
       <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -24522,7 +24576,9 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -24552,7 +24608,9 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -24582,7 +24640,9 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -24612,7 +24672,9 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -24642,7 +24704,9 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -24672,7 +24736,9 @@
       <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -24702,7 +24768,9 @@
       <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -24732,7 +24800,9 @@
       <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -24762,7 +24832,9 @@
       <c r="I37" t="n">
         <v>2</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -24792,7 +24864,9 @@
       <c r="I38" t="n">
         <v>2</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -24822,7 +24896,9 @@
       <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -24852,7 +24928,9 @@
       <c r="I40" t="n">
         <v>2</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -24882,7 +24960,9 @@
       <c r="I41" t="n">
         <v>2</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -24912,7 +24992,9 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -24942,7 +25024,9 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -24972,7 +25056,9 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -25002,7 +25088,9 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -25032,7 +25120,9 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -25062,7 +25152,9 @@
       <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -25092,7 +25184,9 @@
       <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -25122,7 +25216,9 @@
       <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -25152,7 +25248,9 @@
       <c r="I50" t="n">
         <v>2</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -25182,7 +25280,9 @@
       <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -25212,7 +25312,9 @@
       <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -25242,7 +25344,9 @@
       <c r="I53" t="n">
         <v>2</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -25272,7 +25376,9 @@
       <c r="I54" t="n">
         <v>2</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -25302,7 +25408,9 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -25332,7 +25440,9 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -25362,7 +25472,9 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -25392,7 +25504,9 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -25422,7 +25536,9 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -25452,7 +25568,9 @@
       <c r="I60" t="n">
         <v>3</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -25482,7 +25600,9 @@
       <c r="I61" t="n">
         <v>3</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -25512,7 +25632,9 @@
       <c r="I62" t="n">
         <v>3</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -25542,7 +25664,9 @@
       <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -25572,7 +25696,9 @@
       <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -25602,7 +25728,9 @@
       <c r="I65" t="n">
         <v>2</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -25632,7 +25760,9 @@
       <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -25662,7 +25792,9 @@
       <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -25692,7 +25824,9 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -25722,7 +25856,9 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -25752,7 +25888,9 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -25782,7 +25920,9 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -25812,7 +25952,9 @@
       <c r="I72" t="n">
         <v>3</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -25842,7 +25984,9 @@
       <c r="I73" t="n">
         <v>3</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -25872,7 +26016,9 @@
       <c r="I74" t="n">
         <v>3</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -25902,7 +26048,9 @@
       <c r="I75" t="n">
         <v>3</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -25932,7 +26080,9 @@
       <c r="I76" t="n">
         <v>3</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -25962,7 +26112,9 @@
       <c r="I77" t="n">
         <v>2</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -25992,7 +26144,9 @@
       <c r="I78" t="n">
         <v>2</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -26022,7 +26176,9 @@
       <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -26052,7 +26208,9 @@
       <c r="I80" t="n">
         <v>2</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -26082,7 +26240,9 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -26112,7 +26272,9 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -26142,7 +26304,9 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -26172,7 +26336,9 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -26202,7 +26368,9 @@
       <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -26232,7 +26400,9 @@
       <c r="I86" t="n">
         <v>3</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -26262,7 +26432,9 @@
       <c r="I87" t="n">
         <v>3</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -26292,7 +26464,9 @@
       <c r="I88" t="n">
         <v>3</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -26322,7 +26496,9 @@
       <c r="I89" t="n">
         <v>3</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -26352,7 +26528,9 @@
       <c r="I90" t="n">
         <v>2</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -26382,7 +26560,9 @@
       <c r="I91" t="n">
         <v>2</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -26412,7 +26592,9 @@
       <c r="I92" t="n">
         <v>2</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -26442,7 +26624,9 @@
       <c r="I93" t="n">
         <v>2</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -26472,7 +26656,9 @@
       <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -26502,7 +26688,9 @@
       <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -26532,7 +26720,9 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -26562,7 +26752,9 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -26592,7 +26784,9 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -26622,7 +26816,9 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -26652,7 +26848,9 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -26682,7 +26880,9 @@
       <c r="I101" t="n">
         <v>1</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -26712,7 +26912,9 @@
       <c r="I102" t="n">
         <v>1</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -26742,7 +26944,9 @@
       <c r="I103" t="n">
         <v>1</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -26772,7 +26976,9 @@
       <c r="I104" t="n">
         <v>2</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -26802,7 +27008,9 @@
       <c r="I105" t="n">
         <v>2</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -26832,7 +27040,9 @@
       <c r="I106" t="n">
         <v>2</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -26862,7 +27072,9 @@
       <c r="I107" t="n">
         <v>2</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -26892,7 +27104,9 @@
       <c r="I108" t="n">
         <v>2</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -26922,7 +27136,9 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -26952,7 +27168,9 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -26982,7 +27200,9 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -27012,7 +27232,9 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -27042,7 +27264,9 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -27072,7 +27296,9 @@
       <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -27102,7 +27328,9 @@
       <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -27132,7 +27360,9 @@
       <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -27162,7 +27392,9 @@
       <c r="I117" t="n">
         <v>2</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -27192,7 +27424,9 @@
       <c r="I118" t="n">
         <v>2</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -27222,7 +27456,9 @@
       <c r="I119" t="n">
         <v>2</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -27252,7 +27488,9 @@
       <c r="I120" t="n">
         <v>2</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -27282,7 +27520,9 @@
       <c r="I121" t="n">
         <v>2</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -27312,7 +27552,9 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -27342,7 +27584,9 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -27372,7 +27616,9 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -27402,7 +27648,9 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -27432,7 +27680,9 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -27462,7 +27712,9 @@
       <c r="I127" t="n">
         <v>1</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -27492,7 +27744,9 @@
       <c r="I128" t="n">
         <v>1</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -27522,7 +27776,9 @@
       <c r="I129" t="n">
         <v>1</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -27552,7 +27808,9 @@
       <c r="I130" t="n">
         <v>2</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -27582,7 +27840,9 @@
       <c r="I131" t="n">
         <v>2</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -27612,7 +27872,9 @@
       <c r="I132" t="n">
         <v>2</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -27642,7 +27904,9 @@
       <c r="I133" t="n">
         <v>2</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -27672,7 +27936,9 @@
       <c r="I134" t="n">
         <v>2</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -27702,7 +27968,9 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -27732,7 +28000,9 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -27762,7 +28032,9 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -27792,7 +28064,9 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -27822,7 +28096,9 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -27852,7 +28128,9 @@
       <c r="I140" t="n">
         <v>1</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -27882,7 +28160,9 @@
       <c r="I141" t="n">
         <v>1</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -27912,7 +28192,9 @@
       <c r="I142" t="n">
         <v>1</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -27942,7 +28224,9 @@
       <c r="I143" t="n">
         <v>2</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -27972,7 +28256,9 @@
       <c r="I144" t="n">
         <v>2</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -28002,7 +28288,9 @@
       <c r="I145" t="n">
         <v>2</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -28032,7 +28320,9 @@
       <c r="I146" t="n">
         <v>2</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -28062,7 +28352,9 @@
       <c r="I147" t="n">
         <v>2</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -28092,7 +28384,9 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -28122,7 +28416,9 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -28152,7 +28448,9 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -28182,7 +28480,9 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -28212,7 +28512,9 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -28242,7 +28544,9 @@
       <c r="I153" t="n">
         <v>3</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -28272,7 +28576,9 @@
       <c r="I154" t="n">
         <v>3</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -28302,7 +28608,9 @@
       <c r="I155" t="n">
         <v>3</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -28332,7 +28640,9 @@
       <c r="I156" t="n">
         <v>2</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -28362,7 +28672,9 @@
       <c r="I157" t="n">
         <v>2</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -28392,7 +28704,9 @@
       <c r="I158" t="n">
         <v>2</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -28422,7 +28736,9 @@
       <c r="I159" t="n">
         <v>2</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -28452,7 +28768,9 @@
       <c r="I160" t="n">
         <v>2</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -28482,7 +28800,9 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -28512,7 +28832,9 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -28542,7 +28864,9 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -28572,7 +28896,9 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -28602,7 +28928,9 @@
       <c r="I165" t="n">
         <v>3</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -28632,7 +28960,9 @@
       <c r="I166" t="n">
         <v>3</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -28662,7 +28992,9 @@
       <c r="I167" t="n">
         <v>3</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -28692,7 +29024,9 @@
       <c r="I168" t="n">
         <v>3</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -28722,7 +29056,9 @@
       <c r="I169" t="n">
         <v>3</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -28752,7 +29088,9 @@
       <c r="I170" t="n">
         <v>2</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -28782,6 +29120,9 @@
       <c r="I171" t="n">
         <v>2</v>
       </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -28811,6 +29152,9 @@
       <c r="I172" t="n">
         <v>2</v>
       </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -28840,6 +29184,9 @@
       <c r="I173" t="n">
         <v>2</v>
       </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -28869,6 +29216,9 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -28898,6 +29248,9 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -28927,6 +29280,9 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -28956,6 +29312,9 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -28985,6 +29344,9 @@
       <c r="I178" t="n">
         <v>3</v>
       </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -29014,6 +29376,9 @@
       <c r="I179" t="n">
         <v>3</v>
       </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -29043,6 +29408,9 @@
       <c r="I180" t="n">
         <v>3</v>
       </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -29072,6 +29440,9 @@
       <c r="I181" t="n">
         <v>3</v>
       </c>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -29101,6 +29472,9 @@
       <c r="I182" t="n">
         <v>3</v>
       </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -29130,6 +29504,9 @@
       <c r="I183" t="n">
         <v>2</v>
       </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -29159,6 +29536,9 @@
       <c r="I184" t="n">
         <v>2</v>
       </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -29188,6 +29568,9 @@
       <c r="I185" t="n">
         <v>2</v>
       </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -29217,6 +29600,9 @@
       <c r="I186" t="n">
         <v>2</v>
       </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -29246,6 +29632,9 @@
       <c r="I187" t="n">
         <v>3</v>
       </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -29275,6 +29664,9 @@
       <c r="I188" t="n">
         <v>1</v>
       </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -29304,6 +29696,9 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -29333,6 +29728,9 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -29362,6 +29760,9 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -29391,6 +29792,9 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -29420,6 +29824,9 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -29449,6 +29856,9 @@
       <c r="I194" t="n">
         <v>1</v>
       </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -29478,6 +29888,9 @@
       <c r="I195" t="n">
         <v>1</v>
       </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -29507,6 +29920,9 @@
       <c r="I196" t="n">
         <v>1</v>
       </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -29536,6 +29952,9 @@
       <c r="I197" t="n">
         <v>2</v>
       </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -29565,6 +29984,9 @@
       <c r="I198" t="n">
         <v>2</v>
       </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -29594,6 +30016,9 @@
       <c r="I199" t="n">
         <v>2</v>
       </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -29623,6 +30048,9 @@
       <c r="I200" t="n">
         <v>2</v>
       </c>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -29652,6 +30080,9 @@
       <c r="I201" t="n">
         <v>2</v>
       </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -29681,6 +30112,9 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -29710,6 +30144,9 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -29739,6 +30176,9 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -29768,6 +30208,9 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -29797,6 +30240,9 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -29826,6 +30272,9 @@
       <c r="I207" t="n">
         <v>1</v>
       </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -29855,6 +30304,9 @@
       <c r="I208" t="n">
         <v>1</v>
       </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -29884,6 +30336,9 @@
       <c r="I209" t="n">
         <v>1</v>
       </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -29913,6 +30368,9 @@
       <c r="I210" t="n">
         <v>2</v>
       </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -29942,6 +30400,9 @@
       <c r="I211" t="n">
         <v>2</v>
       </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -29971,6 +30432,9 @@
       <c r="I212" t="n">
         <v>2</v>
       </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -30000,6 +30464,9 @@
       <c r="I213" t="n">
         <v>2</v>
       </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -30029,6 +30496,9 @@
       <c r="I214" t="n">
         <v>2</v>
       </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -30058,6 +30528,9 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -30087,6 +30560,9 @@
       <c r="I216" t="n">
         <v>0</v>
       </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -30116,6 +30592,9 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -30145,6 +30624,9 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -30174,6 +30656,9 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -30203,6 +30688,9 @@
       <c r="I220" t="n">
         <v>1</v>
       </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -30232,6 +30720,9 @@
       <c r="I221" t="n">
         <v>1</v>
       </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -30261,6 +30752,9 @@
       <c r="I222" t="n">
         <v>1</v>
       </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -30290,6 +30784,9 @@
       <c r="I223" t="n">
         <v>2</v>
       </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -30319,6 +30816,9 @@
       <c r="I224" t="n">
         <v>2</v>
       </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -30348,6 +30848,9 @@
       <c r="I225" t="n">
         <v>2</v>
       </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -30377,6 +30880,9 @@
       <c r="I226" t="n">
         <v>2</v>
       </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -30406,6 +30912,9 @@
       <c r="I227" t="n">
         <v>2</v>
       </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -30435,6 +30944,9 @@
       <c r="I228" t="n">
         <v>0</v>
       </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -30464,6 +30976,9 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -30493,6 +31008,9 @@
       <c r="I230" t="n">
         <v>0</v>
       </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -30522,6 +31040,9 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -30551,6 +31072,9 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
+      <c r="J232" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -30580,6 +31104,9 @@
       <c r="I233" t="n">
         <v>1</v>
       </c>
+      <c r="J233" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -30609,6 +31136,9 @@
       <c r="I234" t="n">
         <v>1</v>
       </c>
+      <c r="J234" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -30638,6 +31168,9 @@
       <c r="I235" t="n">
         <v>1</v>
       </c>
+      <c r="J235" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -30667,6 +31200,9 @@
       <c r="I236" t="n">
         <v>2</v>
       </c>
+      <c r="J236" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -30696,6 +31232,9 @@
       <c r="I237" t="n">
         <v>2</v>
       </c>
+      <c r="J237" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -30725,6 +31264,9 @@
       <c r="I238" t="n">
         <v>2</v>
       </c>
+      <c r="J238" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -30754,6 +31296,9 @@
       <c r="I239" t="n">
         <v>2</v>
       </c>
+      <c r="J239" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -30783,6 +31328,9 @@
       <c r="I240" t="n">
         <v>2</v>
       </c>
+      <c r="J240" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -30812,6 +31360,9 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
+      <c r="J241" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -30841,6 +31392,9 @@
       <c r="I242" t="n">
         <v>0</v>
       </c>
+      <c r="J242" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -30870,6 +31424,9 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
+      <c r="J243" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -30899,6 +31456,9 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
+      <c r="J244" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -30928,6 +31488,9 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
+      <c r="J245" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -30957,6 +31520,9 @@
       <c r="I246" t="n">
         <v>3</v>
       </c>
+      <c r="J246" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -30986,6 +31552,9 @@
       <c r="I247" t="n">
         <v>3</v>
       </c>
+      <c r="J247" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -31015,6 +31584,9 @@
       <c r="I248" t="n">
         <v>3</v>
       </c>
+      <c r="J248" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -31044,6 +31616,9 @@
       <c r="I249" t="n">
         <v>2</v>
       </c>
+      <c r="J249" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -31073,6 +31648,9 @@
       <c r="I250" t="n">
         <v>2</v>
       </c>
+      <c r="J250" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -31102,6 +31680,9 @@
       <c r="I251" t="n">
         <v>2</v>
       </c>
+      <c r="J251" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -31131,6 +31712,9 @@
       <c r="I252" t="n">
         <v>2</v>
       </c>
+      <c r="J252" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -31158,6 +31742,9 @@
         <v>2</v>
       </c>
       <c r="I253" t="n">
+        <v>2</v>
+      </c>
+      <c r="J253" t="n">
         <v>2</v>
       </c>
     </row>
@@ -31189,6 +31776,9 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
+      <c r="J254" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -31218,6 +31808,9 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
+      <c r="J255" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -31247,6 +31840,9 @@
       <c r="I256" t="n">
         <v>0</v>
       </c>
+      <c r="J256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -31276,6 +31872,9 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
+      <c r="J257" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -31305,6 +31904,9 @@
       <c r="I258" t="n">
         <v>3</v>
       </c>
+      <c r="J258" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -31334,6 +31936,9 @@
       <c r="I259" t="n">
         <v>3</v>
       </c>
+      <c r="J259" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -31363,6 +31968,9 @@
       <c r="I260" t="n">
         <v>3</v>
       </c>
+      <c r="J260" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -31392,6 +32000,9 @@
       <c r="I261" t="n">
         <v>3</v>
       </c>
+      <c r="J261" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -31421,6 +32032,9 @@
       <c r="I262" t="n">
         <v>3</v>
       </c>
+      <c r="J262" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -31450,6 +32064,9 @@
       <c r="I263" t="n">
         <v>2</v>
       </c>
+      <c r="J263" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -31479,6 +32096,9 @@
       <c r="I264" t="n">
         <v>2</v>
       </c>
+      <c r="J264" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -31508,6 +32128,9 @@
       <c r="I265" t="n">
         <v>2</v>
       </c>
+      <c r="J265" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -31537,6 +32160,9 @@
       <c r="I266" t="n">
         <v>2</v>
       </c>
+      <c r="J266" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -31566,6 +32192,9 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
+      <c r="J267" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -31595,6 +32224,9 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
+      <c r="J268" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -31624,6 +32256,9 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
+      <c r="J269" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -31653,6 +32288,9 @@
       <c r="I270" t="n">
         <v>0</v>
       </c>
+      <c r="J270" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -31682,6 +32320,9 @@
       <c r="I271" t="n">
         <v>3</v>
       </c>
+      <c r="J271" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -31711,6 +32352,9 @@
       <c r="I272" t="n">
         <v>3</v>
       </c>
+      <c r="J272" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -31740,6 +32384,9 @@
       <c r="I273" t="n">
         <v>3</v>
       </c>
+      <c r="J273" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -31769,6 +32416,9 @@
       <c r="I274" t="n">
         <v>3</v>
       </c>
+      <c r="J274" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -31798,6 +32448,9 @@
       <c r="I275" t="n">
         <v>3</v>
       </c>
+      <c r="J275" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -31827,6 +32480,9 @@
       <c r="I276" t="n">
         <v>2</v>
       </c>
+      <c r="J276" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -31856,6 +32512,9 @@
       <c r="I277" t="n">
         <v>2</v>
       </c>
+      <c r="J277" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -31885,6 +32544,9 @@
       <c r="I278" t="n">
         <v>2</v>
       </c>
+      <c r="J278" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -31914,6 +32576,9 @@
       <c r="I279" t="n">
         <v>2</v>
       </c>
+      <c r="J279" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -31943,6 +32608,9 @@
       <c r="I280" t="n">
         <v>3</v>
       </c>
+      <c r="J280" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -31972,6 +32640,9 @@
       <c r="I281" t="n">
         <v>1</v>
       </c>
+      <c r="J281" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -32001,6 +32672,9 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
+      <c r="J282" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -32030,6 +32704,9 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
+      <c r="J283" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -32059,6 +32736,9 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
+      <c r="J284" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -32088,6 +32768,9 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
+      <c r="J285" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -32117,6 +32800,9 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
+      <c r="J286" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -32146,6 +32832,9 @@
       <c r="I287" t="n">
         <v>1</v>
       </c>
+      <c r="J287" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -32175,6 +32864,9 @@
       <c r="I288" t="n">
         <v>1</v>
       </c>
+      <c r="J288" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -32204,6 +32896,9 @@
       <c r="I289" t="n">
         <v>1</v>
       </c>
+      <c r="J289" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -32233,6 +32928,9 @@
       <c r="I290" t="n">
         <v>2</v>
       </c>
+      <c r="J290" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -32262,6 +32960,9 @@
       <c r="I291" t="n">
         <v>2</v>
       </c>
+      <c r="J291" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -32291,6 +32992,9 @@
       <c r="I292" t="n">
         <v>2</v>
       </c>
+      <c r="J292" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -32320,6 +33024,9 @@
       <c r="I293" t="n">
         <v>2</v>
       </c>
+      <c r="J293" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -32349,6 +33056,9 @@
       <c r="I294" t="n">
         <v>2</v>
       </c>
+      <c r="J294" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -32378,6 +33088,9 @@
       <c r="I295" t="n">
         <v>0</v>
       </c>
+      <c r="J295" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -32407,6 +33120,9 @@
       <c r="I296" t="n">
         <v>0</v>
       </c>
+      <c r="J296" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -32436,6 +33152,9 @@
       <c r="I297" t="n">
         <v>0</v>
       </c>
+      <c r="J297" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -32465,6 +33184,9 @@
       <c r="I298" t="n">
         <v>0</v>
       </c>
+      <c r="J298" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -32494,6 +33216,9 @@
       <c r="I299" t="n">
         <v>0</v>
       </c>
+      <c r="J299" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -32523,6 +33248,9 @@
       <c r="I300" t="n">
         <v>1</v>
       </c>
+      <c r="J300" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -32552,6 +33280,9 @@
       <c r="I301" t="n">
         <v>1</v>
       </c>
+      <c r="J301" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -32581,6 +33312,9 @@
       <c r="I302" t="n">
         <v>1</v>
       </c>
+      <c r="J302" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -32610,6 +33344,9 @@
       <c r="I303" t="n">
         <v>2</v>
       </c>
+      <c r="J303" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -32639,6 +33376,9 @@
       <c r="I304" t="n">
         <v>2</v>
       </c>
+      <c r="J304" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -32668,6 +33408,9 @@
       <c r="I305" t="n">
         <v>2</v>
       </c>
+      <c r="J305" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -32697,6 +33440,9 @@
       <c r="I306" t="n">
         <v>2</v>
       </c>
+      <c r="J306" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -32726,6 +33472,9 @@
       <c r="I307" t="n">
         <v>2</v>
       </c>
+      <c r="J307" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -32755,6 +33504,9 @@
       <c r="I308" t="n">
         <v>0</v>
       </c>
+      <c r="J308" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -32784,6 +33536,9 @@
       <c r="I309" t="n">
         <v>0</v>
       </c>
+      <c r="J309" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -32813,6 +33568,9 @@
       <c r="I310" t="n">
         <v>0</v>
       </c>
+      <c r="J310" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -32842,6 +33600,9 @@
       <c r="I311" t="n">
         <v>0</v>
       </c>
+      <c r="J311" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -32871,6 +33632,9 @@
       <c r="I312" t="n">
         <v>0</v>
       </c>
+      <c r="J312" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -32900,6 +33664,9 @@
       <c r="I313" t="n">
         <v>1</v>
       </c>
+      <c r="J313" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -32929,6 +33696,9 @@
       <c r="I314" t="n">
         <v>1</v>
       </c>
+      <c r="J314" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -32958,6 +33728,9 @@
       <c r="I315" t="n">
         <v>1</v>
       </c>
+      <c r="J315" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -32987,6 +33760,9 @@
       <c r="I316" t="n">
         <v>2</v>
       </c>
+      <c r="J316" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -33016,6 +33792,9 @@
       <c r="I317" t="n">
         <v>2</v>
       </c>
+      <c r="J317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -33045,6 +33824,9 @@
       <c r="I318" t="n">
         <v>2</v>
       </c>
+      <c r="J318" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -33074,6 +33856,9 @@
       <c r="I319" t="n">
         <v>2</v>
       </c>
+      <c r="J319" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -33103,6 +33888,9 @@
       <c r="I320" t="n">
         <v>2</v>
       </c>
+      <c r="J320" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -33132,6 +33920,9 @@
       <c r="I321" t="n">
         <v>0</v>
       </c>
+      <c r="J321" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -33161,6 +33952,9 @@
       <c r="I322" t="n">
         <v>0</v>
       </c>
+      <c r="J322" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -33190,6 +33984,9 @@
       <c r="I323" t="n">
         <v>0</v>
       </c>
+      <c r="J323" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -33219,6 +34016,9 @@
       <c r="I324" t="n">
         <v>0</v>
       </c>
+      <c r="J324" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -33248,6 +34048,9 @@
       <c r="I325" t="n">
         <v>0</v>
       </c>
+      <c r="J325" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -33277,6 +34080,9 @@
       <c r="I326" t="n">
         <v>1</v>
       </c>
+      <c r="J326" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -33306,6 +34112,9 @@
       <c r="I327" t="n">
         <v>1</v>
       </c>
+      <c r="J327" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -33335,6 +34144,9 @@
       <c r="I328" t="n">
         <v>1</v>
       </c>
+      <c r="J328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -33364,6 +34176,9 @@
       <c r="I329" t="n">
         <v>2</v>
       </c>
+      <c r="J329" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -33393,6 +34208,9 @@
       <c r="I330" t="n">
         <v>2</v>
       </c>
+      <c r="J330" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -33422,6 +34240,9 @@
       <c r="I331" t="n">
         <v>2</v>
       </c>
+      <c r="J331" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -33451,6 +34272,9 @@
       <c r="I332" t="n">
         <v>2</v>
       </c>
+      <c r="J332" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -33480,6 +34304,9 @@
       <c r="I333" t="n">
         <v>2</v>
       </c>
+      <c r="J333" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -33509,6 +34336,9 @@
       <c r="I334" t="n">
         <v>0</v>
       </c>
+      <c r="J334" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -33538,6 +34368,9 @@
       <c r="I335" t="n">
         <v>0</v>
       </c>
+      <c r="J335" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -33567,6 +34400,9 @@
       <c r="I336" t="n">
         <v>0</v>
       </c>
+      <c r="J336" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -33596,6 +34432,9 @@
       <c r="I337" t="n">
         <v>0</v>
       </c>
+      <c r="J337" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -33625,6 +34464,9 @@
       <c r="I338" t="n">
         <v>0</v>
       </c>
+      <c r="J338" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -33654,6 +34496,9 @@
       <c r="I339" t="n">
         <v>3</v>
       </c>
+      <c r="J339" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -33683,6 +34528,9 @@
       <c r="I340" t="n">
         <v>3</v>
       </c>
+      <c r="J340" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -33712,6 +34560,9 @@
       <c r="I341" t="n">
         <v>3</v>
       </c>
+      <c r="J341" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -33741,6 +34592,9 @@
       <c r="I342" t="n">
         <v>2</v>
       </c>
+      <c r="J342" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -33770,6 +34624,9 @@
       <c r="I343" t="n">
         <v>2</v>
       </c>
+      <c r="J343" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -33799,6 +34656,9 @@
       <c r="I344" t="n">
         <v>2</v>
       </c>
+      <c r="J344" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -33828,6 +34688,9 @@
       <c r="I345" t="n">
         <v>2</v>
       </c>
+      <c r="J345" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -33855,6 +34718,9 @@
         <v>2</v>
       </c>
       <c r="I346" t="n">
+        <v>2</v>
+      </c>
+      <c r="J346" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33886,6 +34752,9 @@
       <c r="I347" t="n">
         <v>0</v>
       </c>
+      <c r="J347" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -33915,6 +34784,9 @@
       <c r="I348" t="n">
         <v>0</v>
       </c>
+      <c r="J348" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -33944,6 +34816,9 @@
       <c r="I349" t="n">
         <v>0</v>
       </c>
+      <c r="J349" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -33973,6 +34848,9 @@
       <c r="I350" t="n">
         <v>0</v>
       </c>
+      <c r="J350" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -34002,6 +34880,9 @@
       <c r="I351" t="n">
         <v>3</v>
       </c>
+      <c r="J351" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -34031,6 +34912,9 @@
       <c r="I352" t="n">
         <v>3</v>
       </c>
+      <c r="J352" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -34060,6 +34944,9 @@
       <c r="I353" t="n">
         <v>3</v>
       </c>
+      <c r="J353" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -34089,6 +34976,9 @@
       <c r="I354" t="n">
         <v>3</v>
       </c>
+      <c r="J354" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -34118,6 +35008,9 @@
       <c r="I355" t="n">
         <v>3</v>
       </c>
+      <c r="J355" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -34147,6 +35040,9 @@
       <c r="I356" t="n">
         <v>2</v>
       </c>
+      <c r="J356" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -34176,6 +35072,9 @@
       <c r="I357" t="n">
         <v>2</v>
       </c>
+      <c r="J357" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -34205,6 +35104,9 @@
       <c r="I358" t="n">
         <v>2</v>
       </c>
+      <c r="J358" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -34234,6 +35136,9 @@
       <c r="I359" t="n">
         <v>2</v>
       </c>
+      <c r="J359" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -34263,6 +35168,9 @@
       <c r="I360" t="n">
         <v>0</v>
       </c>
+      <c r="J360" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -34292,6 +35200,9 @@
       <c r="I361" t="n">
         <v>0</v>
       </c>
+      <c r="J361" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -34321,6 +35232,9 @@
       <c r="I362" t="n">
         <v>0</v>
       </c>
+      <c r="J362" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -34350,6 +35264,9 @@
       <c r="I363" t="n">
         <v>0</v>
       </c>
+      <c r="J363" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -34379,6 +35296,9 @@
       <c r="I364" t="n">
         <v>3</v>
       </c>
+      <c r="J364" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -34408,6 +35328,9 @@
       <c r="I365" t="n">
         <v>3</v>
       </c>
+      <c r="J365" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -34437,6 +35360,9 @@
       <c r="I366" t="n">
         <v>3</v>
       </c>
+      <c r="J366" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -34466,6 +35392,9 @@
       <c r="I367" t="n">
         <v>3</v>
       </c>
+      <c r="J367" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -34495,6 +35424,9 @@
       <c r="I368" t="n">
         <v>3</v>
       </c>
+      <c r="J368" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -34524,6 +35456,9 @@
       <c r="I369" t="n">
         <v>2</v>
       </c>
+      <c r="J369" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -34553,6 +35488,9 @@
       <c r="I370" t="n">
         <v>2</v>
       </c>
+      <c r="J370" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -34582,6 +35520,9 @@
       <c r="I371" t="n">
         <v>2</v>
       </c>
+      <c r="J371" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -34611,6 +35552,9 @@
       <c r="I372" t="n">
         <v>2</v>
       </c>
+      <c r="J372" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -34640,6 +35584,9 @@
       <c r="I373" t="n">
         <v>3</v>
       </c>
+      <c r="J373" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -34669,6 +35616,9 @@
       <c r="I374" t="n">
         <v>1</v>
       </c>
+      <c r="J374" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -34698,6 +35648,9 @@
       <c r="I375" t="n">
         <v>0</v>
       </c>
+      <c r="J375" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -34727,6 +35680,9 @@
       <c r="I376" t="n">
         <v>0</v>
       </c>
+      <c r="J376" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -34756,6 +35712,9 @@
       <c r="I377" t="n">
         <v>0</v>
       </c>
+      <c r="J377" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -34785,6 +35744,9 @@
       <c r="I378" t="n">
         <v>0</v>
       </c>
+      <c r="J378" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -34814,6 +35776,9 @@
       <c r="I379" t="n">
         <v>0</v>
       </c>
+      <c r="J379" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -34843,6 +35808,9 @@
       <c r="I380" t="n">
         <v>1</v>
       </c>
+      <c r="J380" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -34872,6 +35840,9 @@
       <c r="I381" t="n">
         <v>1</v>
       </c>
+      <c r="J381" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -34901,6 +35872,9 @@
       <c r="I382" t="n">
         <v>1</v>
       </c>
+      <c r="J382" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -34930,6 +35904,9 @@
       <c r="I383" t="n">
         <v>2</v>
       </c>
+      <c r="J383" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -34959,6 +35936,9 @@
       <c r="I384" t="n">
         <v>2</v>
       </c>
+      <c r="J384" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -34988,6 +35968,9 @@
       <c r="I385" t="n">
         <v>2</v>
       </c>
+      <c r="J385" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -35017,6 +36000,9 @@
       <c r="I386" t="n">
         <v>2</v>
       </c>
+      <c r="J386" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -35046,6 +36032,9 @@
       <c r="I387" t="n">
         <v>2</v>
       </c>
+      <c r="J387" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -35075,6 +36064,9 @@
       <c r="I388" t="n">
         <v>0</v>
       </c>
+      <c r="J388" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -35104,6 +36096,9 @@
       <c r="I389" t="n">
         <v>0</v>
       </c>
+      <c r="J389" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -35133,6 +36128,9 @@
       <c r="I390" t="n">
         <v>0</v>
       </c>
+      <c r="J390" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -35162,6 +36160,9 @@
       <c r="I391" t="n">
         <v>0</v>
       </c>
+      <c r="J391" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -35191,6 +36192,9 @@
       <c r="I392" t="n">
         <v>0</v>
       </c>
+      <c r="J392" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -35220,6 +36224,9 @@
       <c r="I393" t="n">
         <v>1</v>
       </c>
+      <c r="J393" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -35249,6 +36256,9 @@
       <c r="I394" t="n">
         <v>1</v>
       </c>
+      <c r="J394" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -35278,6 +36288,9 @@
       <c r="I395" t="n">
         <v>1</v>
       </c>
+      <c r="J395" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -35307,6 +36320,9 @@
       <c r="I396" t="n">
         <v>2</v>
       </c>
+      <c r="J396" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -35336,6 +36352,9 @@
       <c r="I397" t="n">
         <v>2</v>
       </c>
+      <c r="J397" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -35365,6 +36384,9 @@
       <c r="I398" t="n">
         <v>2</v>
       </c>
+      <c r="J398" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -35394,6 +36416,9 @@
       <c r="I399" t="n">
         <v>2</v>
       </c>
+      <c r="J399" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -35423,6 +36448,9 @@
       <c r="I400" t="n">
         <v>2</v>
       </c>
+      <c r="J400" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -35452,6 +36480,9 @@
       <c r="I401" t="n">
         <v>0</v>
       </c>
+      <c r="J401" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -35481,6 +36512,9 @@
       <c r="I402" t="n">
         <v>0</v>
       </c>
+      <c r="J402" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -35510,6 +36544,9 @@
       <c r="I403" t="n">
         <v>0</v>
       </c>
+      <c r="J403" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -35539,6 +36576,9 @@
       <c r="I404" t="n">
         <v>0</v>
       </c>
+      <c r="J404" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -35568,6 +36608,9 @@
       <c r="I405" t="n">
         <v>0</v>
       </c>
+      <c r="J405" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -35597,6 +36640,9 @@
       <c r="I406" t="n">
         <v>1</v>
       </c>
+      <c r="J406" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -35626,6 +36672,9 @@
       <c r="I407" t="n">
         <v>1</v>
       </c>
+      <c r="J407" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -35655,6 +36704,9 @@
       <c r="I408" t="n">
         <v>1</v>
       </c>
+      <c r="J408" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -35684,6 +36736,9 @@
       <c r="I409" t="n">
         <v>2</v>
       </c>
+      <c r="J409" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -35713,6 +36768,9 @@
       <c r="I410" t="n">
         <v>2</v>
       </c>
+      <c r="J410" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -35742,6 +36800,9 @@
       <c r="I411" t="n">
         <v>2</v>
       </c>
+      <c r="J411" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -35771,6 +36832,9 @@
       <c r="I412" t="n">
         <v>2</v>
       </c>
+      <c r="J412" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -35800,6 +36864,9 @@
       <c r="I413" t="n">
         <v>2</v>
       </c>
+      <c r="J413" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -35829,6 +36896,9 @@
       <c r="I414" t="n">
         <v>0</v>
       </c>
+      <c r="J414" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -35858,6 +36928,9 @@
       <c r="I415" t="n">
         <v>0</v>
       </c>
+      <c r="J415" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -35887,6 +36960,9 @@
       <c r="I416" t="n">
         <v>0</v>
       </c>
+      <c r="J416" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -35916,6 +36992,9 @@
       <c r="I417" t="n">
         <v>0</v>
       </c>
+      <c r="J417" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -35945,6 +37024,9 @@
       <c r="I418" t="n">
         <v>0</v>
       </c>
+      <c r="J418" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -35974,6 +37056,9 @@
       <c r="I419" t="n">
         <v>1</v>
       </c>
+      <c r="J419" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -36003,6 +37088,9 @@
       <c r="I420" t="n">
         <v>1</v>
       </c>
+      <c r="J420" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -36032,6 +37120,9 @@
       <c r="I421" t="n">
         <v>1</v>
       </c>
+      <c r="J421" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -36061,6 +37152,9 @@
       <c r="I422" t="n">
         <v>2</v>
       </c>
+      <c r="J422" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -36090,6 +37184,9 @@
       <c r="I423" t="n">
         <v>2</v>
       </c>
+      <c r="J423" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -36119,6 +37216,9 @@
       <c r="I424" t="n">
         <v>2</v>
       </c>
+      <c r="J424" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -36148,6 +37248,9 @@
       <c r="I425" t="n">
         <v>2</v>
       </c>
+      <c r="J425" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -36177,6 +37280,9 @@
       <c r="I426" t="n">
         <v>2</v>
       </c>
+      <c r="J426" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -36206,6 +37312,9 @@
       <c r="I427" t="n">
         <v>0</v>
       </c>
+      <c r="J427" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -36235,6 +37344,9 @@
       <c r="I428" t="n">
         <v>0</v>
       </c>
+      <c r="J428" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -36264,6 +37376,9 @@
       <c r="I429" t="n">
         <v>0</v>
       </c>
+      <c r="J429" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -36293,6 +37408,9 @@
       <c r="I430" t="n">
         <v>0</v>
       </c>
+      <c r="J430" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -36322,6 +37440,9 @@
       <c r="I431" t="n">
         <v>0</v>
       </c>
+      <c r="J431" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -36351,6 +37472,9 @@
       <c r="I432" t="n">
         <v>3</v>
       </c>
+      <c r="J432" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -36380,6 +37504,9 @@
       <c r="I433" t="n">
         <v>3</v>
       </c>
+      <c r="J433" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -36409,6 +37536,9 @@
       <c r="I434" t="n">
         <v>3</v>
       </c>
+      <c r="J434" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -36438,6 +37568,9 @@
       <c r="I435" t="n">
         <v>2</v>
       </c>
+      <c r="J435" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -36467,6 +37600,9 @@
       <c r="I436" t="n">
         <v>2</v>
       </c>
+      <c r="J436" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -36496,6 +37632,9 @@
       <c r="I437" t="n">
         <v>2</v>
       </c>
+      <c r="J437" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -36525,6 +37664,9 @@
       <c r="I438" t="n">
         <v>2</v>
       </c>
+      <c r="J438" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -36553,6 +37695,9 @@
       </c>
       <c r="I439" t="n">
         <v>2</v>
+      </c>
+      <c r="J439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -36583,6 +37728,9 @@
       <c r="I440" t="n">
         <v>0</v>
       </c>
+      <c r="J440" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -36612,6 +37760,9 @@
       <c r="I441" t="n">
         <v>0</v>
       </c>
+      <c r="J441" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -36641,6 +37792,9 @@
       <c r="I442" t="n">
         <v>0</v>
       </c>
+      <c r="J442" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -36670,6 +37824,9 @@
       <c r="I443" t="n">
         <v>0</v>
       </c>
+      <c r="J443" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -36699,6 +37856,9 @@
       <c r="I444" t="n">
         <v>3</v>
       </c>
+      <c r="J444" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -36728,6 +37888,9 @@
       <c r="I445" t="n">
         <v>3</v>
       </c>
+      <c r="J445" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -36757,6 +37920,9 @@
       <c r="I446" t="n">
         <v>3</v>
       </c>
+      <c r="J446" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -36786,6 +37952,9 @@
       <c r="I447" t="n">
         <v>3</v>
       </c>
+      <c r="J447" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -36815,6 +37984,9 @@
       <c r="I448" t="n">
         <v>3</v>
       </c>
+      <c r="J448" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -36844,6 +38016,9 @@
       <c r="I449" t="n">
         <v>2</v>
       </c>
+      <c r="J449" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -36873,6 +38048,9 @@
       <c r="I450" t="n">
         <v>2</v>
       </c>
+      <c r="J450" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -36902,6 +38080,9 @@
       <c r="I451" t="n">
         <v>2</v>
       </c>
+      <c r="J451" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -36931,6 +38112,9 @@
       <c r="I452" t="n">
         <v>2</v>
       </c>
+      <c r="J452" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -36960,6 +38144,9 @@
       <c r="I453" t="n">
         <v>0</v>
       </c>
+      <c r="J453" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -36989,6 +38176,9 @@
       <c r="I454" t="n">
         <v>0</v>
       </c>
+      <c r="J454" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -37018,6 +38208,9 @@
       <c r="I455" t="n">
         <v>0</v>
       </c>
+      <c r="J455" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -37047,6 +38240,9 @@
       <c r="I456" t="n">
         <v>0</v>
       </c>
+      <c r="J456" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -37076,6 +38272,9 @@
       <c r="I457" t="n">
         <v>3</v>
       </c>
+      <c r="J457" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -37105,6 +38304,9 @@
       <c r="I458" t="n">
         <v>3</v>
       </c>
+      <c r="J458" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -37134,6 +38336,9 @@
       <c r="I459" t="n">
         <v>3</v>
       </c>
+      <c r="J459" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -37163,6 +38368,9 @@
       <c r="I460" t="n">
         <v>3</v>
       </c>
+      <c r="J460" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -37192,6 +38400,9 @@
       <c r="I461" t="n">
         <v>3</v>
       </c>
+      <c r="J461" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -37221,6 +38432,9 @@
       <c r="I462" t="n">
         <v>2</v>
       </c>
+      <c r="J462" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -37250,6 +38464,9 @@
       <c r="I463" t="n">
         <v>2</v>
       </c>
+      <c r="J463" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -37279,6 +38496,9 @@
       <c r="I464" t="n">
         <v>2</v>
       </c>
+      <c r="J464" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -37308,6 +38528,9 @@
       <c r="I465" t="n">
         <v>2</v>
       </c>
+      <c r="J465" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -37337,6 +38560,9 @@
       <c r="I466" t="n">
         <v>3</v>
       </c>
+      <c r="J466" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -37366,6 +38592,9 @@
       <c r="I467" t="n">
         <v>1</v>
       </c>
+      <c r="J467" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -37394,6 +38623,9 @@
       </c>
       <c r="I468" t="n">
         <v>0</v>
+      </c>
+      <c r="J468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -88316,6 +89548,9 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -88352,6 +89587,9 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -88388,6 +89626,9 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
@@ -88424,6 +89665,9 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
@@ -88460,6 +89704,9 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -88489,6 +89736,9 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -88518,6 +89768,9 @@
       <c r="I8" t="n">
         <v>1</v>
       </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -88547,6 +89800,9 @@
       <c r="I9" t="n">
         <v>1</v>
       </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -88576,6 +89832,9 @@
       <c r="I10" t="n">
         <v>1</v>
       </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -88605,6 +89864,9 @@
       <c r="I11" t="n">
         <v>2</v>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -88634,6 +89896,9 @@
       <c r="I12" t="n">
         <v>2</v>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -88663,6 +89928,9 @@
       <c r="I13" t="n">
         <v>2</v>
       </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -88692,6 +89960,9 @@
       <c r="I14" t="n">
         <v>2</v>
       </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -88721,6 +89992,9 @@
       <c r="I15" t="n">
         <v>2</v>
       </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -88750,6 +90024,9 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -88779,6 +90056,9 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -88808,6 +90088,9 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -88837,6 +90120,9 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -88866,6 +90152,9 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -88895,6 +90184,9 @@
       <c r="I21" t="n">
         <v>1</v>
       </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -88924,6 +90216,9 @@
       <c r="I22" t="n">
         <v>1</v>
       </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -88953,6 +90248,9 @@
       <c r="I23" t="n">
         <v>1</v>
       </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -88982,6 +90280,9 @@
       <c r="I24" t="n">
         <v>2</v>
       </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -89011,6 +90312,9 @@
       <c r="I25" t="n">
         <v>2</v>
       </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -89040,6 +90344,9 @@
       <c r="I26" t="n">
         <v>2</v>
       </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -89069,6 +90376,9 @@
       <c r="I27" t="n">
         <v>2</v>
       </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -89098,6 +90408,9 @@
       <c r="I28" t="n">
         <v>2</v>
       </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -89127,6 +90440,9 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -89156,6 +90472,9 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -89185,6 +90504,9 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -89214,6 +90536,9 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -89243,6 +90568,9 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -89272,6 +90600,9 @@
       <c r="I34" t="n">
         <v>1</v>
       </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -89301,6 +90632,9 @@
       <c r="I35" t="n">
         <v>1</v>
       </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -89330,6 +90664,9 @@
       <c r="I36" t="n">
         <v>1</v>
       </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -89359,6 +90696,9 @@
       <c r="I37" t="n">
         <v>2</v>
       </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -89388,6 +90728,9 @@
       <c r="I38" t="n">
         <v>2</v>
       </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -89417,6 +90760,9 @@
       <c r="I39" t="n">
         <v>2</v>
       </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -89446,6 +90792,9 @@
       <c r="I40" t="n">
         <v>2</v>
       </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -89475,6 +90824,9 @@
       <c r="I41" t="n">
         <v>2</v>
       </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -89504,6 +90856,9 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -89533,6 +90888,9 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -89562,6 +90920,9 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -89591,6 +90952,9 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -89620,6 +90984,9 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -89649,6 +91016,9 @@
       <c r="I47" t="n">
         <v>1</v>
       </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -89678,6 +91048,9 @@
       <c r="I48" t="n">
         <v>1</v>
       </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -89707,6 +91080,9 @@
       <c r="I49" t="n">
         <v>1</v>
       </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -89736,6 +91112,9 @@
       <c r="I50" t="n">
         <v>2</v>
       </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -89765,6 +91144,9 @@
       <c r="I51" t="n">
         <v>2</v>
       </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -89794,6 +91176,9 @@
       <c r="I52" t="n">
         <v>2</v>
       </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -89823,6 +91208,9 @@
       <c r="I53" t="n">
         <v>2</v>
       </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -89852,6 +91240,9 @@
       <c r="I54" t="n">
         <v>2</v>
       </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -89881,6 +91272,9 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -89910,6 +91304,9 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -89939,6 +91336,9 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -89968,6 +91368,9 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -89997,6 +91400,9 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -90026,6 +91432,9 @@
       <c r="I60" t="n">
         <v>3</v>
       </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -90055,6 +91464,9 @@
       <c r="I61" t="n">
         <v>3</v>
       </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -90084,6 +91496,9 @@
       <c r="I62" t="n">
         <v>3</v>
       </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -90113,6 +91528,9 @@
       <c r="I63" t="n">
         <v>2</v>
       </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -90142,6 +91560,9 @@
       <c r="I64" t="n">
         <v>2</v>
       </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -90171,6 +91592,9 @@
       <c r="I65" t="n">
         <v>2</v>
       </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -90200,6 +91624,9 @@
       <c r="I66" t="n">
         <v>2</v>
       </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -90228,6 +91655,9 @@
       </c>
       <c r="I67" t="n">
         <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -90258,6 +91688,9 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -90287,6 +91720,9 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -90316,6 +91752,9 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -90345,6 +91784,9 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -90374,6 +91816,9 @@
       <c r="I72" t="n">
         <v>3</v>
       </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -90403,6 +91848,9 @@
       <c r="I73" t="n">
         <v>3</v>
       </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -90432,6 +91880,9 @@
       <c r="I74" t="n">
         <v>3</v>
       </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -90461,6 +91912,9 @@
       <c r="I75" t="n">
         <v>3</v>
       </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -90490,6 +91944,9 @@
       <c r="I76" t="n">
         <v>3</v>
       </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -90519,6 +91976,9 @@
       <c r="I77" t="n">
         <v>2</v>
       </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -90548,6 +92008,9 @@
       <c r="I78" t="n">
         <v>2</v>
       </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -90577,6 +92040,9 @@
       <c r="I79" t="n">
         <v>2</v>
       </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -90606,6 +92072,9 @@
       <c r="I80" t="n">
         <v>2</v>
       </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -90635,6 +92104,9 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -90664,6 +92136,9 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -90693,6 +92168,9 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -90722,6 +92200,9 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -90751,6 +92232,9 @@
       <c r="I85" t="n">
         <v>3</v>
       </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -90780,6 +92264,9 @@
       <c r="I86" t="n">
         <v>3</v>
       </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -90809,6 +92296,9 @@
       <c r="I87" t="n">
         <v>3</v>
       </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -90838,6 +92328,9 @@
       <c r="I88" t="n">
         <v>3</v>
       </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -90867,6 +92360,9 @@
       <c r="I89" t="n">
         <v>3</v>
       </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -90896,6 +92392,9 @@
       <c r="I90" t="n">
         <v>2</v>
       </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -90925,6 +92424,9 @@
       <c r="I91" t="n">
         <v>2</v>
       </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -90954,6 +92456,9 @@
       <c r="I92" t="n">
         <v>2</v>
       </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -90983,6 +92488,9 @@
       <c r="I93" t="n">
         <v>2</v>
       </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -91012,6 +92520,9 @@
       <c r="I94" t="n">
         <v>3</v>
       </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -91041,6 +92552,9 @@
       <c r="I95" t="n">
         <v>1</v>
       </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -91070,6 +92584,9 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -91099,6 +92616,9 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -91128,6 +92648,9 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -91157,6 +92680,9 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -91186,6 +92712,9 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -91215,6 +92744,9 @@
       <c r="I101" t="n">
         <v>1</v>
       </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -91244,6 +92776,9 @@
       <c r="I102" t="n">
         <v>1</v>
       </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -91273,6 +92808,9 @@
       <c r="I103" t="n">
         <v>1</v>
       </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -91302,6 +92840,9 @@
       <c r="I104" t="n">
         <v>2</v>
       </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -91331,6 +92872,9 @@
       <c r="I105" t="n">
         <v>2</v>
       </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -91360,6 +92904,9 @@
       <c r="I106" t="n">
         <v>2</v>
       </c>
+      <c r="J106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -91389,6 +92936,9 @@
       <c r="I107" t="n">
         <v>2</v>
       </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -91418,6 +92968,9 @@
       <c r="I108" t="n">
         <v>2</v>
       </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -91447,6 +93000,9 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
+      <c r="J109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -91476,6 +93032,9 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -91505,6 +93064,9 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -91534,6 +93096,9 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
+      <c r="J112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -91563,6 +93128,9 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -91592,6 +93160,9 @@
       <c r="I114" t="n">
         <v>1</v>
       </c>
+      <c r="J114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -91621,6 +93192,9 @@
       <c r="I115" t="n">
         <v>1</v>
       </c>
+      <c r="J115" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -91650,6 +93224,9 @@
       <c r="I116" t="n">
         <v>1</v>
       </c>
+      <c r="J116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -91679,6 +93256,9 @@
       <c r="I117" t="n">
         <v>2</v>
       </c>
+      <c r="J117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -91708,6 +93288,9 @@
       <c r="I118" t="n">
         <v>2</v>
       </c>
+      <c r="J118" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -91737,6 +93320,9 @@
       <c r="I119" t="n">
         <v>2</v>
       </c>
+      <c r="J119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -91766,6 +93352,9 @@
       <c r="I120" t="n">
         <v>2</v>
       </c>
+      <c r="J120" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -91795,6 +93384,9 @@
       <c r="I121" t="n">
         <v>2</v>
       </c>
+      <c r="J121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -91824,6 +93416,9 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -91853,6 +93448,9 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -91882,6 +93480,9 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
+      <c r="J124" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -91911,6 +93512,9 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -91940,6 +93544,9 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
+      <c r="J126" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -91969,6 +93576,9 @@
       <c r="I127" t="n">
         <v>1</v>
       </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -91998,6 +93608,9 @@
       <c r="I128" t="n">
         <v>1</v>
       </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -92027,6 +93640,9 @@
       <c r="I129" t="n">
         <v>1</v>
       </c>
+      <c r="J129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -92056,6 +93672,9 @@
       <c r="I130" t="n">
         <v>2</v>
       </c>
+      <c r="J130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -92085,6 +93704,9 @@
       <c r="I131" t="n">
         <v>2</v>
       </c>
+      <c r="J131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -92114,6 +93736,9 @@
       <c r="I132" t="n">
         <v>2</v>
       </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -92143,6 +93768,9 @@
       <c r="I133" t="n">
         <v>2</v>
       </c>
+      <c r="J133" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -92172,6 +93800,9 @@
       <c r="I134" t="n">
         <v>2</v>
       </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -92201,6 +93832,9 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -92230,6 +93864,9 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
+      <c r="J136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -92259,6 +93896,9 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
+      <c r="J137" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -92288,6 +93928,9 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
+      <c r="J138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -92317,6 +93960,9 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -92346,6 +93992,9 @@
       <c r="I140" t="n">
         <v>1</v>
       </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -92375,6 +94024,9 @@
       <c r="I141" t="n">
         <v>1</v>
       </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -92404,6 +94056,9 @@
       <c r="I142" t="n">
         <v>1</v>
       </c>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -92433,6 +94088,9 @@
       <c r="I143" t="n">
         <v>2</v>
       </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -92462,6 +94120,9 @@
       <c r="I144" t="n">
         <v>2</v>
       </c>
+      <c r="J144" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -92491,6 +94152,9 @@
       <c r="I145" t="n">
         <v>2</v>
       </c>
+      <c r="J145" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -92520,6 +94184,9 @@
       <c r="I146" t="n">
         <v>2</v>
       </c>
+      <c r="J146" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -92549,6 +94216,9 @@
       <c r="I147" t="n">
         <v>2</v>
       </c>
+      <c r="J147" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -92578,6 +94248,9 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
+      <c r="J148" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -92607,6 +94280,9 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
+      <c r="J149" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -92636,6 +94312,9 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
+      <c r="J150" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -92665,6 +94344,9 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
+      <c r="J151" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -92694,6 +94376,9 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
+      <c r="J152" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -92723,6 +94408,9 @@
       <c r="I153" t="n">
         <v>3</v>
       </c>
+      <c r="J153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -92752,6 +94440,9 @@
       <c r="I154" t="n">
         <v>3</v>
       </c>
+      <c r="J154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -92781,6 +94472,9 @@
       <c r="I155" t="n">
         <v>3</v>
       </c>
+      <c r="J155" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -92810,6 +94504,9 @@
       <c r="I156" t="n">
         <v>2</v>
       </c>
+      <c r="J156" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -92839,6 +94536,9 @@
       <c r="I157" t="n">
         <v>2</v>
       </c>
+      <c r="J157" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -92868,6 +94568,9 @@
       <c r="I158" t="n">
         <v>2</v>
       </c>
+      <c r="J158" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -92897,6 +94600,9 @@
       <c r="I159" t="n">
         <v>2</v>
       </c>
+      <c r="J159" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -92925,6 +94631,9 @@
       </c>
       <c r="I160" t="n">
         <v>2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="161">
@@ -92955,6 +94664,9 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -92984,6 +94696,9 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
+      <c r="J162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -93013,6 +94728,9 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
+      <c r="J163" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -93042,6 +94760,9 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
+      <c r="J164" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -93071,6 +94792,9 @@
       <c r="I165" t="n">
         <v>3</v>
       </c>
+      <c r="J165" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -93100,6 +94824,9 @@
       <c r="I166" t="n">
         <v>3</v>
       </c>
+      <c r="J166" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -93129,6 +94856,9 @@
       <c r="I167" t="n">
         <v>3</v>
       </c>
+      <c r="J167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -93158,6 +94888,9 @@
       <c r="I168" t="n">
         <v>3</v>
       </c>
+      <c r="J168" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -93187,6 +94920,9 @@
       <c r="I169" t="n">
         <v>3</v>
       </c>
+      <c r="J169" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -93216,6 +94952,9 @@
       <c r="I170" t="n">
         <v>2</v>
       </c>
+      <c r="J170" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -93245,6 +94984,9 @@
       <c r="I171" t="n">
         <v>2</v>
       </c>
+      <c r="J171" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -93274,6 +95016,9 @@
       <c r="I172" t="n">
         <v>2</v>
       </c>
+      <c r="J172" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -93303,6 +95048,9 @@
       <c r="I173" t="n">
         <v>2</v>
       </c>
+      <c r="J173" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -93332,6 +95080,9 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
+      <c r="J174" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -93361,6 +95112,9 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
+      <c r="J175" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -93390,6 +95144,9 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
+      <c r="J176" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -93419,6 +95176,9 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
+      <c r="J177" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -93448,6 +95208,9 @@
       <c r="I178" t="n">
         <v>3</v>
       </c>
+      <c r="J178" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -93477,6 +95240,9 @@
       <c r="I179" t="n">
         <v>3</v>
       </c>
+      <c r="J179" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -93506,6 +95272,9 @@
       <c r="I180" t="n">
         <v>3</v>
       </c>
+      <c r="J180" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -93535,6 +95304,9 @@
       <c r="I181" t="n">
         <v>3</v>
       </c>
+      <c r="J181" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -93564,6 +95336,9 @@
       <c r="I182" t="n">
         <v>3</v>
       </c>
+      <c r="J182" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -93593,6 +95368,9 @@
       <c r="I183" t="n">
         <v>2</v>
       </c>
+      <c r="J183" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -93622,6 +95400,9 @@
       <c r="I184" t="n">
         <v>2</v>
       </c>
+      <c r="J184" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -93651,6 +95432,9 @@
       <c r="I185" t="n">
         <v>2</v>
       </c>
+      <c r="J185" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -93680,6 +95464,9 @@
       <c r="I186" t="n">
         <v>2</v>
       </c>
+      <c r="J186" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -93709,6 +95496,9 @@
       <c r="I187" t="n">
         <v>3</v>
       </c>
+      <c r="J187" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -93738,6 +95528,9 @@
       <c r="I188" t="n">
         <v>1</v>
       </c>
+      <c r="J188" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -93767,6 +95560,9 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
+      <c r="J189" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -93796,6 +95592,9 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
+      <c r="J190" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -93825,6 +95624,9 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
+      <c r="J191" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -93853,6 +95655,9 @@
       </c>
       <c r="I192" t="n">
         <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">

--- a/facelabels.xlsx
+++ b/facelabels.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="815" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="815" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="divisions" sheetId="1" state="visible" r:id="rId1"/>
@@ -23598,8 +23598,8 @@
   </sheetPr>
   <dimension ref="A1:M2834"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -27329,7 +27329,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -27361,7 +27361,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -27393,7 +27393,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -31073,7 +31073,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -31105,7 +31105,7 @@
         <v>1</v>
       </c>
       <c r="J233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -31137,7 +31137,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -34881,7 +34881,7 @@
         <v>3</v>
       </c>
       <c r="J351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -38656,6 +38656,9 @@
       <c r="I469" t="n">
         <v>0</v>
       </c>
+      <c r="J469" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -38684,6 +38687,9 @@
       </c>
       <c r="I470" t="n">
         <v>0</v>
+      </c>
+      <c r="J470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -89462,8 +89468,8 @@
   </sheetPr>
   <dimension ref="A1:M1035"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -91049,7 +91055,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -91081,7 +91087,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -91113,7 +91119,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -92585,7 +92591,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -92617,7 +92623,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -92649,7 +92655,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -92681,7 +92687,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -92713,7 +92719,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -94153,7 +94159,7 @@
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -94185,7 +94191,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -94217,7 +94223,7 @@
         <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -94249,7 +94255,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -94281,7 +94287,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -94313,7 +94319,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -95688,6 +95694,9 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
+      <c r="J193" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -95717,6 +95726,9 @@
       <c r="I194" t="n">
         <v>1</v>
       </c>
+      <c r="J194" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -95746,6 +95758,9 @@
       <c r="I195" t="n">
         <v>1</v>
       </c>
+      <c r="J195" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -95775,6 +95790,9 @@
       <c r="I196" t="n">
         <v>1</v>
       </c>
+      <c r="J196" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -95804,6 +95822,9 @@
       <c r="I197" t="n">
         <v>2</v>
       </c>
+      <c r="J197" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -95833,6 +95854,9 @@
       <c r="I198" t="n">
         <v>2</v>
       </c>
+      <c r="J198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -95862,6 +95886,9 @@
       <c r="I199" t="n">
         <v>2</v>
       </c>
+      <c r="J199" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -95890,6 +95917,9 @@
       </c>
       <c r="I200" t="n">
         <v>2</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
